--- a/data/trans_camb/CoTrAQ_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R2-Clase-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.652703079964395</v>
+        <v>1.640279600005601</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9720809396708096</v>
+        <v>1.025560082230354</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.015167377104354</v>
+        <v>2.58232107726255</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.24150799670464</v>
+        <v>10.7166883720381</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.18881631027595</v>
+        <v>12.57188481700932</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.33720263460345</v>
+        <v>9.670470952101061</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2590432525266938</v>
+        <v>0.1580954678540252</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03617163527333292</v>
+        <v>0.04299213300612911</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4469662747149853</v>
+        <v>0.3568666882548885</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.68288467558738</v>
+        <v>3.796247616637563</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.964674705973033</v>
+        <v>4.206796041337671</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3.055392481816345</v>
+        <v>2.885222899725209</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.353439789634665</v>
+        <v>5.412942412487758</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.522243830320912</v>
+        <v>6.452377623835027</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.787110909778619</v>
+        <v>8.650061528055081</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>18.68471233645304</v>
+        <v>18.27471012050968</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.44111828744495</v>
+        <v>25.71425826236942</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.58273466438599</v>
+        <v>19.06506954415952</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.4480869622160194</v>
+        <v>0.5135385882137169</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2637219074964107</v>
+        <v>0.2907090962411019</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5971290534746089</v>
+        <v>0.6310669672466495</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3.171662922126782</v>
+        <v>3.32717506665194</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.167564087182615</v>
+        <v>2.118195004462747</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.158019559904998</v>
+        <v>2.170230928181369</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.186124293302814</v>
+        <v>1.655838235062994</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.04234677196593</v>
+        <v>-10.07108409277159</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.316384572028667</v>
+        <v>0.1979744014450527</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.38757762623573</v>
+        <v>15.10720815688426</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.624206684016984</v>
+        <v>2.69468572663445</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.1207927976959</v>
+        <v>11.05512794395576</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1365888112031224</v>
+        <v>0.1205921680992365</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.007995535196807312</v>
+        <v>0.007384333168883629</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.203916051609847</v>
+        <v>2.260617202175295</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.107358559968093</v>
+        <v>1.48413861838254</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.604024643684765</v>
+        <v>1.657936889074861</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.142546515849858</v>
+        <v>3.458671840657081</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.58183427517027</v>
+        <v>4.823535768110814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.562881301429201</v>
+        <v>6.487081408377823</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.13826262518553</v>
+        <v>15.65123036207297</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.06509659772546</v>
+        <v>18.27771558407391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.99027100719245</v>
+        <v>15.343131644861</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1845153699845501</v>
+        <v>0.1554980046665539</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1829416795920098</v>
+        <v>0.1880894352498177</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.308445103109006</v>
+        <v>0.2954721513844157</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.030006885126621</v>
+        <v>0.9818931219931054</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.122098278522839</v>
+        <v>1.131014735833104</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8906315059896422</v>
+        <v>0.9329252365192402</v>
       </c>
     </row>
     <row r="28">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.478352864206486</v>
+        <v>2.66738179075111</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.829447361593195</v>
+        <v>3.793090870587241</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6.539306544330556</v>
+        <v>6.346046375368047</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>24.2637573424859</v>
+        <v>24.33270110868359</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>24.02987908470053</v>
+        <v>24.3084653523943</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21.22983730710511</v>
+        <v>20.7137694947439</v>
       </c>
     </row>
     <row r="31">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.04012055371800779</v>
+        <v>0.06711577462415105</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1013969968128782</v>
+        <v>0.09259794438452718</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1874591286811284</v>
+        <v>0.1801141547425654</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9081963602367664</v>
+        <v>0.9317077471689715</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.9302800940487677</v>
+        <v>0.9192972686523297</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7689456884150049</v>
+        <v>0.7519299814899586</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>7.915251602248803</v>
+        <v>7.683050980165705</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>7.76959645433782</v>
+        <v>8.044158660943351</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9.055656138230308</v>
+        <v>8.977443870593154</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.10549117695863</v>
+        <v>13.8580813288632</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.54293874540291</v>
+        <v>15.65530708844938</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>13.93878176593658</v>
+        <v>13.72974255980701</v>
       </c>
     </row>
     <row r="37">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.5473338494392006</v>
+        <v>0.5059835671267424</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.4033870954490612</v>
+        <v>0.4175873491092583</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.5649910750165195</v>
+        <v>0.5644790316324543</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.187255290312587</v>
+        <v>1.145568440621801</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.05665430562845</v>
+        <v>1.053644939364452</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.032852925405765</v>
+        <v>1.008854855744854</v>
       </c>
     </row>
     <row r="40">
